--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -807,7 +807,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2160 SILVERNAIL RD.</t>
+          <t>2160 SILVERNAIL RD</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1758,10 +1758,14 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -1798,21 +1802,9 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -1926,7 +1918,11 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -1971,7 +1967,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2018,7 +2014,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2069,7 +2065,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
+          <t>600 WALNUT RIDGE DR</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2124,7 +2120,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>600 WALNUT RIDGE DR</t>
+          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2173,11 +2169,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2235,9 +2227,21 @@
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Wht Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2290,21 +2294,9 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Wht Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2414,7 +2406,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2468,7 +2464,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2527,7 +2523,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2597,7 +2593,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #178 +RX, MADISON-SHOPKO DR</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2648,7 +2644,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>PICK #178 +RX, MADISON-SHOPKO DR</t>
+          <t>2502 SHOPKO DRIVE</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2705,7 +2701,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2502 SHOPKO DRIVE</t>
+          <t>https://goo.gl/maps/mzSRZ7wKTvq</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2765,7 +2761,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/mzSRZ7wKTvq</t>
+          <t>Qiana will be doing some advanced training here with Celina and Zakiyah</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2818,11 +2814,7 @@
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Qiana will be doing some advanced training here with Celina and Zakiyah</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -2872,9 +2864,21 @@
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -2925,19 +2929,15 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -2988,12 +2988,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3047,15 +3047,20 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Charletta</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Driver, 
+Red Van</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3106,20 +3111,15 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Driver, 
-Red Van</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3146,15 +3146,19 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3193,12 +3197,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3249,12 +3253,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3304,12 +3308,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3359,17 +3363,18 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3414,18 +3419,17 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3470,17 +3474,18 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3525,18 +3530,17 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3577,12 +3581,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3628,12 +3632,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3675,12 +3679,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3712,21 +3716,9 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -536,24 +536,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,24 +603,56 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -590,8 +662,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -1603,7 +1603,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -674,7 +674,11 @@
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>White Camry Oil Change</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -1212,7 +1216,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2450,21 +2450,9 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2780,13 +2768,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -2841,7 +2828,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2896,7 +2883,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2947,7 +2934,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3010,7 +2997,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3069,7 +3056,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3128,12 +3115,13 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3185,21 +3173,9 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
@@ -3284,7 +3260,11 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
@@ -3338,7 +3318,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3350,7 +3330,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3393,7 +3373,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1094 MOB MILWAUKEE</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3405,12 +3385,13 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3448,7 +3429,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1094 MOB MILWAUKEE</t>
+          <t>2801 W KINNICKINNIC RIVER PKWY, SUITE 160</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3460,13 +3441,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3504,7 +3484,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2801 W KINNICKINNIC RIVER PKWY, SUITE 160</t>
+          <t>https://goo.gl/maps/bHQey4yoESDm33MX6</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3516,12 +3496,13 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3559,7 +3540,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/bHQey4yoESDm33MX6</t>
+          <t>ENTRANCE IS ON THE 27TH ST SIDE OF BUILDING</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3571,13 +3552,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3613,11 +3593,7 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>ENTRANCE IS ON THE 27TH ST SIDE OF BUILDING</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
@@ -3627,7 +3603,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3667,9 +3643,21 @@
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
@@ -3678,7 +3666,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3708,19 +3696,15 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
@@ -3729,7 +3713,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3757,33 +3741,13 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3832,7 +3796,11 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3861,7 +3829,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3892,7 +3860,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3923,7 +3891,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
+          <t>36500 AURORA DRIVE, SUITE 100</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -3954,7 +3922,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>36500 AURORA DRIVE, SUITE 100</t>
+          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3985,7 +3953,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
+          <t>IF YOU ARRIVE BEFORE 6:00 AM ENTER THROUGH EMERGENCY ENTRANCE.  CLINIC DOORS OPEN AT 6:00 AM</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4014,11 +3982,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>IF YOU ARRIVE BEFORE 6:00 AM ENTER THROUGH EMERGENCY ENTRANCE.  CLINIC DOORS OPEN AT 6:00 AM</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -4098,9 +4062,21 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4127,19 +4103,15 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4164,16 +4136,8 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4227,7 +4191,11 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -4256,7 +4224,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4275,37 +4243,6 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -1016,12 +1016,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Red Van available, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1303,7 +1303,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4:30 AM MEET WATERTOWN PLANK</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1422,7 +1422,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1030, OSHKOSH</t>
+          <t>CONDON OIL #150, KIEL</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1536,7 +1536,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>414 DOCTORS COURT SUITE 100</t>
+          <t>84 E PARK AVE</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7jsxtRm7nJ82</t>
+          <t>https://goo.gl/maps/HE1oXp7RZPP2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1653,7 +1653,11 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -1699,22 +1703,13 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -1775,14 +1770,10 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>CONDON OIL #165, CHILTON</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1836,7 +1827,11 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>613 N MADISON ST</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1883,7 +1878,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/idhDxXsWdCT2</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1934,11 +1933,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1993,13 +1988,21 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -2040,13 +2043,22 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
@@ -2088,11 +2100,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CONDON OIL #150, KIEL</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2139,11 +2147,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>84 E PARK AVE</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2196,7 +2200,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HE1oXp7RZPP2</t>
+          <t>5:00 AM MEET AT S RACINE COURT (43 &amp; Y)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2251,7 +2255,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2298,7 +2302,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2369,7 +2373,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CONDON OIL #165, CHILTON</t>
+          <t>KELLEY #81, HUNTLEY</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2424,7 +2428,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>613 N MADISON ST</t>
+          <t>10111 IL-47</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2468,7 +2472,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/idhDxXsWdCT2</t>
+          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2521,7 +2525,11 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2572,21 +2580,9 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2638,18 +2634,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2701,9 +2696,22 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -2757,9 +2765,21 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Work w/ Michael</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -2813,13 +2833,21 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5:00 AM MEET AT S RACINE COURT (43 &amp; Y)</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -2868,13 +2896,21 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -2919,13 +2955,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -2982,13 +3026,21 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>KELLEY #81, HUNTLEY</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
@@ -3041,13 +3093,21 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10111 IL-47</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -3101,11 +3161,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -3166,11 +3222,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -3243,21 +3295,9 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
@@ -3298,22 +3338,9 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
@@ -3354,21 +3381,9 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Work w/ Michael</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
@@ -3410,21 +3425,9 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
@@ -3465,21 +3468,9 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
@@ -3521,21 +3512,9 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
@@ -3576,21 +3555,9 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3627,21 +3594,9 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -1682,7 +1682,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -3535,7 +3535,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3665,21 +3665,9 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -2175,11 +2175,7 @@
           <t>9)</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>@ Store</t>
@@ -2279,7 +2275,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2398,21 +2394,9 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -2175,7 +2175,11 @@
           <t>9)</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr">
         <is>
           <t>@ Store</t>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -1805,15 +1805,10 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
@@ -1865,10 +1860,15 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1959,15 +1959,10 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
@@ -2031,10 +2026,15 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2232,12 +2232,12 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, until 10:00</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2398,9 +2398,21 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2446,9 +2458,21 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Milwaukee Schedule.xlsx
@@ -2177,14 +2177,10 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
@@ -2232,12 +2228,12 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>@ Store, until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -2279,12 +2275,12 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, until 10:00</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -2350,7 +2346,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2405,7 +2401,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2465,7 +2461,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2513,9 +2509,21 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
